--- a/云南25-26.xlsx
+++ b/云南25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26电车项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53818DB9-66D6-CE46-8759-F6652EDD57F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEF191-6BE1-2740-BE72-5E1ED77AB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="660" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
+    <workbookView xWindow="1720" yWindow="1320" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
   <sheets>
     <sheet name="车库库存" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>序列号</t>
   </si>
@@ -117,14 +117,30 @@
     <t>收款人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>湘AFJ0072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注，已收定金3000，售价81000，包拆G，客户上门提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -289,19 +305,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:P9791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -633,30 +649,31 @@
     <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="15" width="14" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="37.83203125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
@@ -720,33 +737,33 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>88000</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <f>SUM(E3:G3)</f>
         <v>88000</v>
       </c>
       <c r="I3" s="1">
         <v>143000</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <f>IF(I3="", "", I3-H3)</f>
         <v>55000</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>45696</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="1" t="s">
         <v>19</v>
       </c>
@@ -756,12 +773,76 @@
         <f t="shared" ref="A4:A65" si="0">ROW()-2</f>
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7">
+        <v>69000</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <f>SUM(E4:G4)</f>
+        <v>69000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>81000</v>
+      </c>
+      <c r="J4" s="7">
+        <f>IF(I4="", "", I4-H4)</f>
+        <v>12000</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45703</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <f>SUM(E5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7" t="str">
+        <f>IF(I5="", "", I5-H5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6">
@@ -59485,10 +59566,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:O3" xr:uid="{73565285-B504-EE4A-9E17-86FFFE6576CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:O5" xr:uid="{73565285-B504-EE4A-9E17-86FFFE6576CC}">
       <formula1>"已回利润,未回利润"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3" xr:uid="{53E9A116-95E7-3D42-BD80-2DE936BAE138}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M5" xr:uid="{53E9A116-95E7-3D42-BD80-2DE936BAE138}">
       <formula1>"未出库,已出库"</formula1>
     </dataValidation>
   </dataValidations>

--- a/云南25-26.xlsx
+++ b/云南25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26电车项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEF191-6BE1-2740-BE72-5E1ED77AB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9AB760-D57E-254C-8C59-E567FA1C5F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1320" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:P9791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -740,18 +740,20 @@
       <c r="E3" s="7">
         <v>88000</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>1900</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7">
         <f>SUM(E3:G3)</f>
-        <v>88000</v>
+        <v>89900</v>
       </c>
       <c r="I3" s="1">
         <v>143000</v>
       </c>
       <c r="J3" s="7">
         <f>IF(I3="", "", I3-H3)</f>
-        <v>55000</v>
+        <v>53100</v>
       </c>
       <c r="K3" s="8">
         <v>45696</v>

--- a/云南25-26.xlsx
+++ b/云南25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26电车项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9AB760-D57E-254C-8C59-E567FA1C5F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB5CB9-173E-1849-BFAF-FA6A81D6435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1320" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>序列号</t>
   </si>
@@ -130,7 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待入</t>
+    <t>哈弗H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫B65J57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:P9791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -819,23 +823,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10507</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>67000</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
         <f>SUM(E5:G5)</f>
-        <v>0</v>
+        <v>67000</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="7" t="str">
         <f>IF(I5="", "", I5-H5)</f>
         <v/>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>45705</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>15</v>

--- a/云南25-26.xlsx
+++ b/云南25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26电车项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB5CB9-173E-1849-BFAF-FA6A81D6435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7508C57-DD9B-EB41-BCBA-FA66D6D86B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1320" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注，已收定金1万，售价143000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收款人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,10 @@
   </si>
   <si>
     <t>豫B65J57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注，已收定金1万，售价143000，已收款33300，交车收尾款10万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +641,7 @@
   <dimension ref="A1:P9791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,7 +655,7 @@
     <col min="13" max="13" width="10.83203125" style="2"/>
     <col min="14" max="14" width="14" style="2" customWidth="1"/>
     <col min="15" max="15" width="23.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="37.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="64.83203125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -723,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>3</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -780,11 +780,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>69000</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -823,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>10507</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7">
         <v>67000</v>
